--- a/CMN Verification Feature & TC.xlsx
+++ b/CMN Verification Feature & TC.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CMN" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Case CMN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>Feature/Functionalities</t>
   </si>
@@ -35,12 +36,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1\</t>
     </r>
     <r>
@@ -157,23 +152,12 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> module running correct;
-3\when the input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+3\when the input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -183,21 +167,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=1,</t>
     </r>
     <r>
       <rPr>
@@ -248,12 +222,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1\</t>
     </r>
     <r>
@@ -370,23 +338,12 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> module running correct;
-3\when the input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+3\when the input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -396,21 +353,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=1,</t>
     </r>
     <r>
       <rPr>
@@ -459,20 +406,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1\</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -482,7 +421,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -493,7 +431,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -503,7 +440,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -515,7 +451,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -525,7 +460,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -536,7 +470,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -546,7 +479,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -557,7 +489,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -567,7 +498,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -578,7 +508,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -588,29 +517,17 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> module running correct;
-3\when the input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+3\when the input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -620,28 +537,16 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=1,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -651,7 +556,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -662,7 +566,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -672,7 +575,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -688,12 +590,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1\</t>
     </r>
     <r>
@@ -852,21 +748,10 @@
     </r>
   </si>
   <si>
-    <t>TC_006
-TC_007
-TC_008</t>
-  </si>
-  <si>
     <t>CMN_F_005</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">1\the reset signal </t>
     </r>
     <r>
@@ -997,9 +882,8 @@
     </r>
   </si>
   <si>
-    <t>TC_009
-TC_0010
-TC_0011</t>
+    <t xml:space="preserve">TC_006
+</t>
   </si>
   <si>
     <t>register</t>
@@ -1009,12 +893,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">The register address of the </t>
     </r>
     <r>
@@ -1038,19 +916,10 @@
     </r>
   </si>
   <si>
-    <t>TC_0012</t>
-  </si>
-  <si>
     <t>CMN_F_006</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">The </t>
     </r>
     <r>
@@ -1112,19 +981,13 @@
     </r>
   </si>
   <si>
-    <t>TC_0013</t>
+    <t>TC_007</t>
   </si>
   <si>
     <t>CMN_F_007</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">The </t>
     </r>
     <r>
@@ -1186,19 +1049,13 @@
     </r>
   </si>
   <si>
-    <t>TC_0014</t>
+    <t>TC_008</t>
   </si>
   <si>
     <t>CMN_F_008</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">The </t>
     </r>
     <r>
@@ -1260,19 +1117,13 @@
     </r>
   </si>
   <si>
-    <t>TC_0015</t>
+    <t>TC_009</t>
   </si>
   <si>
     <t>CMN_F_009</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">The </t>
     </r>
     <r>
@@ -1335,52 +1186,27 @@
     </r>
   </si>
   <si>
-    <t>TC_0016</t>
+    <t>TC_0010</t>
   </si>
   <si>
     <t>basic function</t>
   </si>
   <si>
-    <t>TX_CTL_F_010</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">By the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cmn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> module, the function case can access all the registers by modules (such as</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> aon.cmn/aon.lane/rpcs.cmn</t>
+    <t>CMN_F_010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By the cmn module, the function case can access all the registers by modules (such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aon.cmn/aon.lane/rpcs.cmn</t>
     </r>
     <r>
       <rPr>
@@ -1451,58 +1277,47 @@
     </r>
   </si>
   <si>
-    <t>TC_0017</t>
-  </si>
-  <si>
-    <t>TX_CTL_F_011</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <t>TC_0011</t>
+  </si>
+  <si>
+    <t>CMN_F_011</t>
+  </si>
+  <si>
+    <r>
       <t>Can be switch between</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> jtag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> apb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jtag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1513,7 +1328,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1523,28 +1337,25 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, and can be totall access  the registers by every modules (such as</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> aon.cmn/aon.lane/rpcs.cmn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and can be totall access  the registers by every modules (such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aon.cmn/aon.lane/rpcs.cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1555,7 +1366,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1565,28 +1375,25 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> through</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> jtag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jtag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1597,7 +1404,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1607,7 +1413,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1616,27 +1421,19 @@
     </r>
   </si>
   <si>
-    <t>TC_0018</t>
-  </si>
-  <si>
-    <t>TX_CTL_F_012</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
+    <t>TC_0012</t>
+  </si>
+  <si>
+    <t>CMN_F_012</t>
+  </si>
+  <si>
+    <r>
       <t>By running the firmware make:</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1646,17 +1443,2217 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> can get orders and operate data through </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can get orders and operate data through</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cr[7:0]_mem_bus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> correctly,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xlane.fsm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> complete register operate with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reg_arbt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cr[7:0]_reg_bus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>TC_0013</t>
+  </si>
+  <si>
+    <t>registers ovrd function</t>
+  </si>
+  <si>
+    <t>Test Case Number</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Test Case Configuration</t>
+  </si>
+  <si>
+    <t>Test Case Checker</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>CMN_TC_001</t>
+  </si>
+  <si>
+    <r>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> i_ref_clk_en=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cr_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> come from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and the frequency division method is related to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_range.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">configure:
+1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_ref_clk_en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1
+2, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is configured as 20M-100M,
+3, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is configured according to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_clk.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Check the working clock of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmn cr_clk = ref_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2, Check that the reset signal of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is controlled by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phy_reset</t>
+    </r>
+  </si>
+  <si>
+    <t>CMN_TC_002</t>
+  </si>
+  <si>
+    <r>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> i_ref_clk_en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cr_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> come from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and the frequency division method is related to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_range.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">configure:
+1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_ref_clk_en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 1
+2, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is configured as 20M-100M,
+3, ref_range is configured according to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_clk.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Check the working clock of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cr_clk = ref_clk/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2, Check that the reset signal of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is controlled by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phy_reset</t>
+    </r>
+  </si>
+  <si>
+    <t>CMN_TC_003</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_ref_clk_en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cr_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> come from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and the frequency division method is related to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_range.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Check the working clock of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cr_clk = ref_clk/4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2, Check that the reset signal of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is controlled by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phy_reset</t>
+    </r>
+  </si>
+  <si>
+    <t>CMN_TC_004</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When port </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_qpll0_sel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cr_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selects </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_clk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">configure:
+1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_qpll0_sel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =1 &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_ref_clk_en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =0
+2, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is configured as 20-100M,
+3, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ref_range </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is configured according to ref_clk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1, Check the working clock of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cr_clk = ref_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2, Check that the reset signal of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is controlled by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phy_reset &amp; i_tx_reset_N</t>
+    </r>
+  </si>
+  <si>
+    <t>CMN_TC_005</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When port </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_qpll1_sel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=1,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cr_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selects </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_clk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">configure:
+1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_qpll0_sel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =1 &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_ref_clk_en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =0
+2, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is configured as 20-100M,
+3, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is configured according to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref_clk</t>
+    </r>
+  </si>
+  <si>
+    <t>1, Check the working clock of cmn cr_clk = ref_clk
+2, Check that the reset signal of cmn is controlled by phy_reset &amp; i_tx_reset_N</t>
+  </si>
+  <si>
+    <t>CMN_TC_006</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pg_mode_en_i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=0, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cr_rst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> come from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">phy_reset_i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">selects </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phy_reset</t>
+    </r>
+  </si>
+  <si>
+    <t>configure:
+1, pg_mode_en_i=0
+2, make phy_reset =1 and 10ns later make phy_reset =0</t>
+  </si>
+  <si>
+    <r>
+      <t>1.Oberseved</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cr_rst </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">be correctly produce.
+2.Check that the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> internal registers and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are equal to the preset reset value.</t>
+    </r>
+  </si>
+  <si>
+    <t>CMN_TC_007/CMN_TC_008/
+CMN_TC_009/CMN_TC_0010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phy_reset_i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>APB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> take control </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CR Parallel Interface.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">configure:
+1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phy_reset_i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=1
+2, use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apb_single_no_wait_wr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> task write </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x55aa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value to registers from address </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to address </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x2057</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,and then use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apb_single_no_wait_rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> task read the value of registers from address </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to address </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0x2057</t>
+    </r>
+  </si>
+  <si>
+    <t>if the register is rw register,then the read value should be equal to write value;if the register is ro register,then the read value should be equal to default value.</t>
+  </si>
+  <si>
+    <t>CMN_TC_0011</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phy_reset_i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=1, make APB take control </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CR Parallel Interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">configure:
+1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phy_reset_i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=1
+2, use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apb_single_no_wait_wr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> task write 0x55aa value to all the registers of every module (such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aon.cmn/aon.lane/rpcs.cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> etc) in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hpcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,and then use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apb_single_no_wait_rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> task read all the registers of every module (such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aon.cmn/aon.lane/rpcs.cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> etc) in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hpcs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">check the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cr_addr[15:0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bus </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/cr_cmn_sel[31:0]/cr_cmn_aon_sel[31:0 ]/cr_cmn_aon_sel2[31:0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> running correctly,belonging to their respective planning domains.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When phy_reset_i=0, make </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JTAG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> take control </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CR Parallel Interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+When phy_reset_i=1, make </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>APB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> take control </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CR Parallel Interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">configure:
+1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phy_reset_i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=0
+2, use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jtag_wr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> task write 0x55aa value to all the registers of every module (such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aon.cmn/aon.lane/rpcs.cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> etc) in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hpcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,and then use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">jtag_rd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">task read all the registers of every module (such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aon.cmn/aon.lane/rpcs.cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> etc) in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hpcs.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phy_reset_i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=1
+4, use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apb_single_no_wait_wr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> task write 0x55aa value to all the registers of every module (such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aon.cmn/aon.lane/rpcs.cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> etc) in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hpcs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,and then use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apb_single_no_wait_rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> task read all the registers of every module (such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aon.cmn/aon.lane/rpcs.cmn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> etc) in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hpcs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phy_reset_i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=0,if the register is rw register,then the read value should be equal to write value by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jtag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;if the register is ro register,then the read value should be equal to default value by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jtag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phy_reset_i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=1,if the register is rw register,then the read value should be equal to write value by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;if the register is ro register,then the read value should be equal to default value by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>CMN_F_013</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">fast_calibration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fimware,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xlane.fsm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can acess </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">memory </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -1671,7 +3668,102 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> correctly,</t>
+      <t xml:space="preserve">,at the same time ,xlane.fsm can acess every module's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>registers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cr[7:0]_reg_bus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1\configure run script '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-gen_wave 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-fast 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'
+2\run the script creat the wave database.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reference fimware code and wave database and firmware process flow,check </t>
     </r>
     <r>
       <rPr>
@@ -1692,28 +3784,70 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> complete register operate with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reg_arbt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> through </t>
+      <t xml:space="preserve"> can acess </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">registers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">correctly by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cr[7:0]_mem_bus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
     </r>
     <r>
       <rPr>
@@ -1736,12 +3870,6 @@
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>TC_0019</t>
-  </si>
-  <si>
-    <t>registers ovrd function</t>
   </si>
 </sst>
 </file>
@@ -1749,15 +3877,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1776,33 +3910,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1827,11 +3939,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1851,9 +3962,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1890,24 +4024,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1929,7 +4056,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1937,13 +4064,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1958,37 +4084,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2012,19 +4126,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2036,13 +4198,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2054,7 +4228,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2066,73 +4258,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2162,21 +4294,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2195,7 +4312,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2219,21 +4351,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2264,179 +4396,199 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2761,398 +4913,587 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5833333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.75" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.66666666666667" style="1"/>
+    <col min="1" max="1" width="20.625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="59.75" style="10" customWidth="1"/>
+    <col min="3" max="3" width="32.5833333333333" style="10" customWidth="1"/>
+    <col min="6" max="6" width="31.75" style="10" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.66666666666667" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" ht="57" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" ht="59" customHeight="1" outlineLevel="1" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" ht="59" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" ht="62" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" ht="55.5" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" ht="21" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" outlineLevel="1" spans="1:7">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" ht="28.5" outlineLevel="1" spans="1:7">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" ht="28.5" outlineLevel="1" spans="1:7">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="1"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" ht="28" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" ht="27" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
+      <c r="A17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" ht="74" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="1"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" ht="57" outlineLevel="1" spans="1:7">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" ht="42.75" outlineLevel="1" spans="1:7">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="1"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" ht="13.5" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="1"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" ht="13.5" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" outlineLevel="1" spans="1:7">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="1"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="9"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="1"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="1"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="1"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="1"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="1"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="1"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="36.625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
+    <col min="4" max="4" width="31.7333333333333" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" ht="72" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="71.25" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="71.25" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="71.25" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="71.25" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="74" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="116" customHeight="1" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="160" customHeight="1" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" ht="285" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" ht="73" customHeight="1" spans="1:5">
+      <c r="A11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/CMN Verification Feature & TC.xlsx
+++ b/CMN Verification Feature & TC.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CMN" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case CMN" sheetId="2" r:id="rId2"/>
+    <sheet name="cr_clk vs ref_range" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="158">
   <si>
     <t>Feature/Functionalities</t>
   </si>
@@ -3870,6 +3871,216 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>source code: ref_range_tmp[1:0] = ref_range[3] ? 2'b11 : ref_range[3:2] ;</t>
+  </si>
+  <si>
+    <t>ref_range_tmp[1:0] in aon_cmn</t>
+  </si>
+  <si>
+    <t>Frequency division factor in aon_cmn</t>
+  </si>
+  <si>
+    <t>frequency after division in aon_cmn(don't considered dig_div2)</t>
+  </si>
+  <si>
+    <t>ref_range</t>
+  </si>
+  <si>
+    <t>clk_ref freq</t>
+  </si>
+  <si>
+    <t>Frequency division factor</t>
+  </si>
+  <si>
+    <t>2'b00</t>
+  </si>
+  <si>
+    <t>div1</t>
+  </si>
+  <si>
+    <t>20-26</t>
+  </si>
+  <si>
+    <t>4'b0000</t>
+  </si>
+  <si>
+    <t>26.1-52</t>
+  </si>
+  <si>
+    <t>4'b0001</t>
+  </si>
+  <si>
+    <t>div2</t>
+  </si>
+  <si>
+    <t>52.1 - 78</t>
+  </si>
+  <si>
+    <t>4'b0010</t>
+  </si>
+  <si>
+    <t>div3</t>
+  </si>
+  <si>
+    <t>78.1 - 104</t>
+  </si>
+  <si>
+    <t>4'b0011</t>
+  </si>
+  <si>
+    <t>div4</t>
+  </si>
+  <si>
+    <t>2'b01</t>
+  </si>
+  <si>
+    <t>52 - 65</t>
+  </si>
+  <si>
+    <t>4'b0100</t>
+  </si>
+  <si>
+    <t>104.1 - 130</t>
+  </si>
+  <si>
+    <t>div5</t>
+  </si>
+  <si>
+    <t>65 - 78</t>
+  </si>
+  <si>
+    <t>4'b0101</t>
+  </si>
+  <si>
+    <t>130.1 - 156</t>
+  </si>
+  <si>
+    <t>div6</t>
+  </si>
+  <si>
+    <t>78 - 91</t>
+  </si>
+  <si>
+    <t>4'b0110</t>
+  </si>
+  <si>
+    <t>156.1 - 182</t>
+  </si>
+  <si>
+    <t>div7</t>
+  </si>
+  <si>
+    <t>91 - 104</t>
+  </si>
+  <si>
+    <t>4'b0111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.1 - 208 </t>
+  </si>
+  <si>
+    <t>div8</t>
+  </si>
+  <si>
+    <t>2'b11</t>
+  </si>
+  <si>
+    <t>52 - 58.5</t>
+  </si>
+  <si>
+    <t>4'b1000</t>
+  </si>
+  <si>
+    <t>208.1 - 234</t>
+  </si>
+  <si>
+    <t>div9</t>
+  </si>
+  <si>
+    <t>58.5 - 65</t>
+  </si>
+  <si>
+    <t>4'h1001</t>
+  </si>
+  <si>
+    <t>234.1 - 260</t>
+  </si>
+  <si>
+    <t>div10</t>
+  </si>
+  <si>
+    <t>65 - 71.5</t>
+  </si>
+  <si>
+    <t>4'h1010</t>
+  </si>
+  <si>
+    <t>260.1 - 286</t>
+  </si>
+  <si>
+    <t>div11</t>
+  </si>
+  <si>
+    <t>71.5 - 78</t>
+  </si>
+  <si>
+    <t>4'h1011</t>
+  </si>
+  <si>
+    <t>286.1 - 312</t>
+  </si>
+  <si>
+    <t>div12</t>
+  </si>
+  <si>
+    <t>78 - 84.5</t>
+  </si>
+  <si>
+    <t>4'h1100</t>
+  </si>
+  <si>
+    <t>312.1 - 338</t>
+  </si>
+  <si>
+    <t>div13</t>
+  </si>
+  <si>
+    <t>84.5 - 91</t>
+  </si>
+  <si>
+    <t>4'h1101</t>
+  </si>
+  <si>
+    <t>338.1 - 364</t>
+  </si>
+  <si>
+    <t>div14</t>
+  </si>
+  <si>
+    <t>91 - 97.5</t>
+  </si>
+  <si>
+    <t>4'h1110</t>
+  </si>
+  <si>
+    <t>364.1 - 390</t>
+  </si>
+  <si>
+    <t>div15</t>
+  </si>
+  <si>
+    <t>97.5 - 100</t>
+  </si>
+  <si>
+    <t>4'h1111</t>
+  </si>
+  <si>
+    <t>390.1 - 400</t>
+  </si>
+  <si>
+    <t>div16</t>
   </si>
 </sst>
 </file>
@@ -3882,7 +4093,14 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4069,12 +4287,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4396,10 +4626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4408,152 +4638,161 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4566,28 +4805,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4914,391 +5153,391 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="59.75" style="10" customWidth="1"/>
-    <col min="3" max="3" width="32.5833333333333" style="10" customWidth="1"/>
-    <col min="6" max="6" width="31.75" style="10" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.66666666666667" style="10"/>
+    <col min="1" max="1" width="20.625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="59.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="32.5833333333333" style="15" customWidth="1"/>
+    <col min="6" max="6" width="31.75" style="15" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.66666666666667" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" ht="57" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" ht="59" customHeight="1" outlineLevel="1" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" ht="59" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="10"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" ht="62" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="10"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" ht="55.5" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="10"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" ht="21" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="10"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="10"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" outlineLevel="1" spans="1:7">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" ht="28.5" outlineLevel="1" spans="1:7">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="10"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" ht="28.5" outlineLevel="1" spans="1:7">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="10"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" ht="28" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="10"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" ht="27" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="10"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="10"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="10"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" ht="74" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="10"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" ht="57" outlineLevel="1" spans="1:7">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="10"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" ht="42.75" outlineLevel="1" spans="1:7">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="10"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" ht="13.5" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="10"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" ht="13.5" customHeight="1" outlineLevel="1" spans="1:7">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="10"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" outlineLevel="1" spans="1:7">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="10"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="18"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="10"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="10"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="10"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="10"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="10"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="10"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="10"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="10"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="10"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="10"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5312,8 +5551,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -5326,171 +5565,546 @@
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" ht="72" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="71.25" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="71.25" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="71.25" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="71.25" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="74" customHeight="1" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="116" customHeight="1" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="160" customHeight="1" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" ht="285" spans="1:5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" ht="73" customHeight="1" spans="1:5">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="44" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
